--- a/CoordenadasHospitales.xlsx
+++ b/CoordenadasHospitales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB3B53-9B72-4CB8-86E2-92C33FA34B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FE22E-2E3B-42AC-9BFF-CAA3435D65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ABEAC0F8-35EB-48DF-A918-2DD2D4A50A0C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>25.67199631502113, -100.31940083373001</t>
   </si>
@@ -259,13 +258,97 @@
   </si>
   <si>
     <t>25.663085034946427, -100.20019786634661</t>
+  </si>
+  <si>
+    <t>25.75320257642245, -100.29892694527824</t>
+  </si>
+  <si>
+    <t>Hospital General de Zona con Medicina Familiar No. 6 (IMSS)</t>
+  </si>
+  <si>
+    <t>IMSS Clínica 17</t>
+  </si>
+  <si>
+    <t>25.701677719308794, -100.33679161539419</t>
+  </si>
+  <si>
+    <t>UNIDAD MEDICA FAMILIAR No 5</t>
+  </si>
+  <si>
+    <t>25.666331139950007, -100.3380545730662</t>
+  </si>
+  <si>
+    <t>25.674615113743183, -100.40615992703417</t>
+  </si>
+  <si>
+    <t>Clinica IMSS 7</t>
+  </si>
+  <si>
+    <t>25.729203268003364, -100.36947268470617</t>
+  </si>
+  <si>
+    <t>IMSS Unidad de Medicina Familiar 26 "Valle Verde"</t>
+  </si>
+  <si>
+    <t>Clínica #38 IMSS CFE</t>
+  </si>
+  <si>
+    <t>25.67145140317942, -100.31446548841018</t>
+  </si>
+  <si>
+    <t>25.795354889585216, -100.25334615401817</t>
+  </si>
+  <si>
+    <t>UNIDAD DE MEDICINA FAMILIAR #71 METROPLEX</t>
+  </si>
+  <si>
+    <t>25.721734938372855, -100.33191090005019</t>
+  </si>
+  <si>
+    <t>Clinica 28 Imss</t>
+  </si>
+  <si>
+    <t>25.85210891943929, -100.36972274237817</t>
+  </si>
+  <si>
+    <t>UMF No. 72 IMSS El Carmen</t>
+  </si>
+  <si>
+    <t>25.641516844024864, -100.19674226692412</t>
+  </si>
+  <si>
+    <t>IMSS Unidad de Medicina Familiar 68</t>
+  </si>
+  <si>
+    <t>IMSS Clinica No.42</t>
+  </si>
+  <si>
+    <t>25.93962801615426, -100.36662116951275</t>
+  </si>
+  <si>
+    <t>25.89392563187443, -100.11788012295276</t>
+  </si>
+  <si>
+    <t>Clinica 59 Gral. Zuazua N. L.</t>
+  </si>
+  <si>
+    <t>IMSS Unidad de Medicina Familiar 19 Apodaca</t>
+  </si>
+  <si>
+    <t>25.779972337201, -100.18674312295275</t>
+  </si>
+  <si>
+    <t>25.27848697622062, -100.01860626951276</t>
+  </si>
+  <si>
+    <t>IMSS Unidad de Medicina Familiar 16 Cd. de Allende</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,14 +371,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,32 +434,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F96E2C-7BFC-4325-BD77-0376983238CF}">
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,453 +788,591 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="D20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="D21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="D22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="D23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2" t="s">
+      <c r="D31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="D32" s="1">
         <v>30</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3" t="s">
+      <c r="D33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="3" t="s">
+      <c r="D34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
+      <c r="D35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="D36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="2" t="s">
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="2" t="s">
+      <c r="D38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="2" t="s">
+      <c r="D39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2" t="s">
+      <c r="D40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="D41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="D42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7" t="s">
+      <c r="D43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7" t="s">
+      <c r="D44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="D45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://goo.gl/maps/QQJkRJzM1HC2" xr:uid="{28F44319-0982-4121-8FCC-28AA16BBC5BF}"/>
@@ -1170,10 +1380,10 @@
     <hyperlink ref="B5" r:id="rId3" display="https://goo.gl/maps/MzFjG9cNarz" xr:uid="{AD34455D-B8EB-412B-BC5B-315779D1D7D2}"/>
     <hyperlink ref="B6" r:id="rId4" display="https://goo.gl/maps/mG7CLsJT5Cn" xr:uid="{0D435460-C2A9-4218-B93A-5E8687DCE764}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://goo.gl/maps/wDrdosJLxtE2" xr:uid="{364E2AEE-3281-4CEB-94E4-C9BAB063BEC8}"/>
-    <hyperlink ref="B26" r:id="rId6" display="https://goo.gl/maps/9XQZ4dSXMy32" xr:uid="{300B6AAF-9484-4DE2-829E-29321FA52346}"/>
-    <hyperlink ref="B27" r:id="rId7" display="https://goo.gl/maps/dfNrPuzT4K32" xr:uid="{A40494F9-0C54-4F95-A252-3D407D6895DC}"/>
-    <hyperlink ref="B28" r:id="rId8" display="https://goo.gl/maps/hbKppQw3hPG2" xr:uid="{5EC8C2F6-7417-49AC-9E8C-E4CE66976D06}"/>
-    <hyperlink ref="B29" r:id="rId9" display="https://goo.gl/maps/VmzvjDmu8so" xr:uid="{B26EF34F-4965-4FD4-B627-A07BA193981B}"/>
+    <hyperlink ref="B33" r:id="rId6" display="https://goo.gl/maps/9XQZ4dSXMy32" xr:uid="{300B6AAF-9484-4DE2-829E-29321FA52346}"/>
+    <hyperlink ref="B34" r:id="rId7" display="https://goo.gl/maps/dfNrPuzT4K32" xr:uid="{A40494F9-0C54-4F95-A252-3D407D6895DC}"/>
+    <hyperlink ref="B35" r:id="rId8" display="https://goo.gl/maps/hbKppQw3hPG2" xr:uid="{5EC8C2F6-7417-49AC-9E8C-E4CE66976D06}"/>
+    <hyperlink ref="B36" r:id="rId9" display="https://goo.gl/maps/VmzvjDmu8so" xr:uid="{B26EF34F-4965-4FD4-B627-A07BA193981B}"/>
     <hyperlink ref="B14" r:id="rId10" display="https://hospitales.org.mx/unidad-de-medicina-familiar-8-60b7903c" xr:uid="{8687C806-AD54-4C0A-AA63-FDBA255D609C}"/>
     <hyperlink ref="B15" r:id="rId11" display="https://hospitales.org.mx/unidad-de-medicina-familiar-numero-3-07cd6a9c" xr:uid="{49DC7CC3-204B-44D4-803D-395BDF137A2F}"/>
     <hyperlink ref="B16" r:id="rId12" display="https://hospitales.org.mx/unidad-de-medicina-familiar-num-32-c13a6afc" xr:uid="{FC5B9088-8F8B-4D9F-B111-2F0B448F823F}"/>
